--- a/pred_ohlcv/54_21/2020-01-19 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 LUNA ohlcv.xlsx
@@ -10142,7 +10142,7 @@
         <v>-48325.04359999998</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-46301.08899999998</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-49402.01109999997</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-47682.19655621998</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-46890.10685621998</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-46890.10685621998</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-46890.10685621998</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-48370.02235621998</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-55284.96635621998</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-51452.99035621998</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-49364.21485621997</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-53217.41705621997</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-46201.17015621997</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-46201.17015621997</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-46201.17015621997</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-44212.05185621997</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-44212.05185621997</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-40536.96385621997</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-38201.38295621997</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-38201.38295621997</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-35812.23955621997</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-33001.88195621996</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-33001.88195621996</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-33001.88195621996</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-28825.28775621996</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-27208.71315621996</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-27208.71315621996</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-27208.71315621996</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-33191.17635621996</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-36359.41795621996</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-40066.29685621996</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-40066.29685621996</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-40066.29685621996</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-44422.00635621996</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-44422.00635621996</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-46478.79155621996</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-46478.79155621996</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-46478.79155621996</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-49188.87765621996</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-50630.84605621995</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-49369.82835621996</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-49369.82835621996</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-55897.95435621995</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-62428.24955621995</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-65903.43195621995</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-69599.59545621995</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-150353.83027034</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-150353.83027034</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-148042.24617034</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-149391.4598703399</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-146305.9220703399</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-149247.0836703399</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-149247.0836703399</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-186776.18017034</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-191625.79247034</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-183720.32637034</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-180921.02420928</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-176767.62420928</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-183338.96290928</v>
       </c>
       <c r="H1049">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-178149.72190928</v>
       </c>
       <c r="H1050">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-178149.72190928</v>
       </c>
       <c r="H1051">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-177798.46100928</v>
       </c>
       <c r="H1052">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-175326.70400928</v>
       </c>
       <c r="H1053">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-176456.63860928</v>
       </c>
       <c r="H1054">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-175246.84250928</v>
       </c>
       <c r="H1055">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-175246.84250928</v>
       </c>
       <c r="H1056">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-178910.17370928</v>
       </c>
       <c r="H1057">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-178910.17370928</v>
       </c>
       <c r="H1058">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-178910.17370928</v>
       </c>
       <c r="H1059">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-182456.67840928</v>
       </c>
       <c r="H1060">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1061">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1062">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1063">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1064">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1065">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1066">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-178467.19810928</v>
       </c>
       <c r="H1067">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-178467.19810928</v>
       </c>
       <c r="H1068">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-178467.19810928</v>
       </c>
       <c r="H1069">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-178378.15430928</v>
       </c>
       <c r="H1070">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-177198.84330928</v>
       </c>
       <c r="H1071">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-177198.84330928</v>
       </c>
       <c r="H1072">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-177198.84330928</v>
       </c>
       <c r="H1073">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-173616.64710928</v>
       </c>
       <c r="H1074">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-170762.70030928</v>
       </c>
       <c r="H1075">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-162045.71660928</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-166293.81530928</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-168239.04730928</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-171114.06490928</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-172343.76980928</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-172870.58940928</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-171993.24750928</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-177536.55820928</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-179836.97310928</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-181524.37490928</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-174808.56930928</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-174808.56930928</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-174808.56930928</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-172488.66130928</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-172488.66130928</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-168803.62660928</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-168803.62660928</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-172188.68550928</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-170120.43920928</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-172908.54770928</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-172908.54770928</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-175148.95610928</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-172306.39760928</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-169927.79260928</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-169229.41660928</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-175971.21890928</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-175971.21890928</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-177428.03510928</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-177428.03510928</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-177428.03510928</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-178726.73510928</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-197960.2054092801</v>
       </c>
       <c r="H1238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-193053.3863092801</v>
       </c>
       <c r="H1239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-197496.7263092801</v>
       </c>
       <c r="H1240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-188075.9041092801</v>
       </c>
       <c r="H1242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-187986.8552092801</v>
       </c>
       <c r="H1243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-190179.2820092801</v>
       </c>
       <c r="H1244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-190090.1907092801</v>
       </c>
       <c r="H1245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-190090.1907092801</v>
       </c>
       <c r="H1246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-190001.1905092801</v>
       </c>
       <c r="H1247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-190769.5559092801</v>
       </c>
       <c r="H1248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-189841.0161092801</v>
       </c>
       <c r="H1249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-189508.7803092801</v>
       </c>
       <c r="H1250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-189508.7803092801</v>
       </c>
       <c r="H1251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-189508.7803092801</v>
       </c>
       <c r="H1252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-182978.3806092801</v>
       </c>
       <c r="H1253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-182978.3806092801</v>
       </c>
       <c r="H1254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-181078.2440092801</v>
       </c>
       <c r="H1255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-185909.7210092801</v>
       </c>
       <c r="H1259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-185909.7210092801</v>
       </c>
       <c r="H1260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-185909.7210092801</v>
       </c>
       <c r="H1261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-184899.2621092801</v>
       </c>
       <c r="H1262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-184899.2621092801</v>
       </c>
       <c r="H1263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>-190812.2720092801</v>
       </c>
       <c r="H1273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>-191564.0951092801</v>
       </c>
       <c r="H1274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>-190033.6305092801</v>
       </c>
       <c r="H1275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 LUNA ohlcv.xlsx
@@ -1458,7 +1458,7 @@
         <v>-59645.92829999999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-59645.92829999999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-64076.71989999999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-64640.42649999999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-60762.50659999999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-62538.16629999998</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-57821.70769999998</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-75247.93499999998</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-53239.19329999999</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-58585.34919999999</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-61567.76029999999</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-57892.21539999999</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-56317.31739999999</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-58927.46399999999</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-58927.46399999999</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-57811.21879999999</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-57811.21879999999</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-53982.48179999999</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-58051.85219999999</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-61484.34779999999</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-60034.32229999999</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-63147.18189999998</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-62489.77399999998</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-59006.43739999998</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-60177.53179999998</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-60177.53179999998</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-55799.59779999998</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-55799.59779999998</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-47231.17469999998</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-48539.97799999998</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-46384.07079999998</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-45196.35679999998</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-48325.04359999998</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-48325.04359999998</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-47240.77759999998</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-47930.67919999998</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-46301.08899999998</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-49402.01109999997</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-47682.19655621998</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-46890.10685621998</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-46890.10685621998</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-46890.10685621998</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-48370.02235621998</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-55284.96635621998</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-55284.96635621998</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-55060.33765621998</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-56846.10875621998</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-53987.35975621997</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-51631.05435621997</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-51452.99035621998</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-51452.99035621998</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-51452.99035621998</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-49364.21485621997</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-53217.41705621997</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-46201.17015621997</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-46201.17015621997</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-46201.17015621997</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-44212.05185621997</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-44212.05185621997</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-40536.96385621997</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-38201.38295621997</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-38201.38295621997</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-35812.23955621997</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-33001.88195621996</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-33001.88195621996</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-33001.88195621996</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-28825.28775621996</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-27208.71315621996</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-27208.71315621996</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-27208.71315621996</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-33191.17635621996</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-36359.41795621996</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-40066.29685621996</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-40066.29685621996</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-40066.29685621996</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-44422.00635621996</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-44422.00635621996</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-46478.79155621996</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-46478.79155621996</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-46478.79155621996</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-49188.87765621996</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-50630.84605621995</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-49369.82835621996</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-49369.82835621996</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-55897.95435621995</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-62428.24955621995</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-65903.43195621995</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-69599.59545621995</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-150353.83027034</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-150353.83027034</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-148042.24617034</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-149391.4598703399</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-146305.9220703399</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-149247.0836703399</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-149247.0836703399</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-186776.18017034</v>
       </c>
       <c r="H1003">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-191625.79247034</v>
       </c>
       <c r="H1004">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-183720.32637034</v>
       </c>
       <c r="H1005">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-180921.02420928</v>
       </c>
       <c r="H1006">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-176767.62420928</v>
       </c>
       <c r="H1011">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-183338.96290928</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-178149.72190928</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-178149.72190928</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-177798.46100928</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-175326.70400928</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-176456.63860928</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-175246.84250928</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-175246.84250928</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-178910.17370928</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-178910.17370928</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-178910.17370928</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-182456.67840928</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-178467.19810928</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-178467.19810928</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-178467.19810928</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-178378.15430928</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-177198.84330928</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-177198.84330928</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-177198.84330928</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-173616.64710928</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-170762.70030928</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-173227.84470928</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-166937.00960928</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-164451.02430928</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-162045.71660928</v>
       </c>
       <c r="H1081">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-166293.81530928</v>
       </c>
       <c r="H1082">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-168239.04730928</v>
       </c>
       <c r="H1083">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-171114.06490928</v>
       </c>
       <c r="H1084">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-172343.76980928</v>
       </c>
       <c r="H1085">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-172870.58940928</v>
       </c>
       <c r="H1086">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-171993.24750928</v>
       </c>
       <c r="H1087">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-177536.55820928</v>
       </c>
       <c r="H1088">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-179836.97310928</v>
       </c>
       <c r="H1089">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-181524.37490928</v>
       </c>
       <c r="H1090">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-178978.44320928</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-174808.56930928</v>
       </c>
       <c r="H1101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-174808.56930928</v>
       </c>
       <c r="H1102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-174808.56930928</v>
       </c>
       <c r="H1103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-172488.66130928</v>
       </c>
       <c r="H1104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-172488.66130928</v>
       </c>
       <c r="H1105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-168803.62660928</v>
       </c>
       <c r="H1106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-168803.62660928</v>
       </c>
       <c r="H1107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-172188.68550928</v>
       </c>
       <c r="H1108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-170120.43920928</v>
       </c>
       <c r="H1109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-172908.54770928</v>
       </c>
       <c r="H1110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-172908.54770928</v>
       </c>
       <c r="H1111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-175148.95610928</v>
       </c>
       <c r="H1112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-172306.39760928</v>
       </c>
       <c r="H1113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-169927.79260928</v>
       </c>
       <c r="H1114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-169229.41660928</v>
       </c>
       <c r="H1115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-175971.21890928</v>
       </c>
       <c r="H1116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-175971.21890928</v>
       </c>
       <c r="H1117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-177428.03510928</v>
       </c>
       <c r="H1119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-177428.03510928</v>
       </c>
       <c r="H1120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-177428.03510928</v>
       </c>
       <c r="H1121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-178726.73510928</v>
       </c>
       <c r="H1122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-188075.9041092801</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-187986.8552092801</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-190179.2820092801</v>
       </c>
       <c r="H1244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-190090.1907092801</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-190090.1907092801</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-190001.1905092801</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-190769.5559092801</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-189841.0161092801</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-189508.7803092801</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-189508.7803092801</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-189508.7803092801</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-182978.3806092801</v>
       </c>
       <c r="H1253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-181078.2440092801</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-184005.5781092801</v>
       </c>
       <c r="H1256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-184005.5781092801</v>
       </c>
       <c r="H1257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-183724.2418092801</v>
       </c>
       <c r="H1258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-185909.7210092801</v>
       </c>
       <c r="H1259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-185909.7210092801</v>
       </c>
       <c r="H1260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-185909.7210092801</v>
       </c>
       <c r="H1261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-184899.2621092801</v>
       </c>
       <c r="H1262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-184899.2621092801</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-181373.6403092801</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-181373.6403092801</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-181941.9327092801</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-181941.9327092801</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-183182.0034092801</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-183182.0034092801</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-183182.0034092801</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-188936.4361092801</v>
       </c>
       <c r="H1271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>-192650.5849092801</v>
       </c>
       <c r="H1272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>-190812.2720092801</v>
       </c>
       <c r="H1273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>-191564.0951092801</v>
       </c>
       <c r="H1274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>-190033.6305092801</v>
       </c>
       <c r="H1275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
